--- a/ex_3_phonebook/my_project.xlsx
+++ b/ex_3_phonebook/my_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_9\ex_3_phonebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1322A51-EBC3-4F37-B2B9-C3C899AE8E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04D6CED-CB10-4742-914E-B66F5CC23D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Телфон</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Телфон</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
     <t>Грибной</t>
   </si>
   <si>
@@ -58,6 +58,12 @@
     <t>Артёмов</t>
   </si>
   <si>
+    <t>Дроздов</t>
+  </si>
+  <si>
+    <t>Арбалетов</t>
+  </si>
+  <si>
     <t>Арсен</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>Артём</t>
   </si>
   <si>
+    <t>Андрей</t>
+  </si>
+  <si>
     <t>Петрович</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>Артёмович</t>
+  </si>
+  <si>
+    <t>Иванович</t>
   </si>
   <si>
     <t>личный</t>
@@ -502,155 +514,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>525453545</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>789456</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>8515695</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>8878987</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1945654</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1549587454</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>521254</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>521254</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1648</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>521254</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1648</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>521254</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1648</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>521254</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1648</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>521254</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1648</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>521254</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1648</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>521254</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1648</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ex_3_phonebook/my_project.xlsx
+++ b/ex_3_phonebook/my_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_9\ex_3_phonebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04D6CED-CB10-4742-914E-B66F5CC23D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D4DA2-98DA-471A-A5CE-3631E49FA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>Фамилия</t>
   </si>
@@ -64,6 +64,12 @@
     <t>Арбалетов</t>
   </si>
   <si>
+    <t>Краснов</t>
+  </si>
+  <si>
+    <t>Прошлая</t>
+  </si>
+  <si>
     <t>Арсен</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>Андрей</t>
   </si>
   <si>
+    <t>вава</t>
+  </si>
+  <si>
     <t>Петрович</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>Иванович</t>
   </si>
   <si>
+    <t>ыпыпып</t>
+  </si>
+  <si>
     <t>личный</t>
   </si>
   <si>
@@ -113,6 +125,9 @@
   </si>
   <si>
     <t>дом</t>
+  </si>
+  <si>
+    <t>лаллпа</t>
   </si>
 </sst>
 </file>
@@ -514,9 +529,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -548,16 +563,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>525453545</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,16 +583,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>789456</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,16 +603,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>8515695</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,16 +623,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>8878987</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,16 +643,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1945654</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,16 +663,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>1549587454</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,16 +683,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>521254</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,16 +703,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>521254</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,16 +723,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1648</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +743,16 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>521254</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,16 +763,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>1648</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,16 +783,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>521254</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1648</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,16 +823,16 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>521254</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,16 +843,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1648</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,16 +863,16 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>521254</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,16 +883,16 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>1648</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,16 +903,16 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>521254</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -908,16 +923,16 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>1648</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>521254</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,16 +963,96 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>1648</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>545454</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>12345</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>521254</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1648</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ex_3_phonebook/my_project.xlsx
+++ b/ex_3_phonebook/my_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_9\ex_3_phonebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D4DA2-98DA-471A-A5CE-3631E49FA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0CCF5-D88E-4518-B12A-7F2A6380CD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Фамилия</t>
   </si>
@@ -58,16 +58,7 @@
     <t>Артёмов</t>
   </si>
   <si>
-    <t>Дроздов</t>
-  </si>
-  <si>
-    <t>Арбалетов</t>
-  </si>
-  <si>
-    <t>Краснов</t>
-  </si>
-  <si>
-    <t>Прошлая</t>
+    <t>Романов</t>
   </si>
   <si>
     <t>Арсен</t>
@@ -88,10 +79,7 @@
     <t>Артём</t>
   </si>
   <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>вава</t>
+    <t>Сергей</t>
   </si>
   <si>
     <t>Петрович</t>
@@ -112,12 +100,6 @@
     <t>Артёмович</t>
   </si>
   <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>ыпыпып</t>
-  </si>
-  <si>
     <t>личный</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
   </si>
   <si>
     <t>дом</t>
-  </si>
-  <si>
-    <t>лаллпа</t>
   </si>
 </sst>
 </file>
@@ -529,11 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -563,16 +551,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>525453545</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>789456</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,16 +591,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>8515695</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,16 +611,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>8878987</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,16 +631,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1945654</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,16 +651,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1549587454</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,376 +671,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>521254</v>
+        <v>123456789</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>521254</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1648</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>521254</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1648</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>521254</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1648</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>521254</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1648</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>521254</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>1648</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19">
-        <v>521254</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>1648</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>521254</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>1648</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>545454</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24">
-        <v>12345</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>521254</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>1648</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ex_3_phonebook/my_project.xlsx
+++ b/ex_3_phonebook/my_project.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_9\ex_3_phonebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0CCF5-D88E-4518-B12A-7F2A6380CD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726BA09-F406-4224-9955-FD400BE774A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Фамилия</t>
   </si>
   <si>
@@ -37,76 +40,73 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Грибной</t>
   </si>
   <si>
+    <t>Арсен</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>личный</t>
+  </si>
+  <si>
     <t>Арбатов</t>
   </si>
   <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>рабочий</t>
+  </si>
+  <si>
     <t>Круглов</t>
   </si>
   <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
     <t>Котова</t>
   </si>
   <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Константиновна</t>
+  </si>
+  <si>
     <t>Аниськин</t>
   </si>
   <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
     <t>Артёмов</t>
   </si>
   <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>Артёмович</t>
+  </si>
+  <si>
     <t>Романов</t>
   </si>
   <si>
-    <t>Арсен</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>Егор</t>
-  </si>
-  <si>
-    <t>Артём</t>
-  </si>
-  <si>
     <t>Сергей</t>
-  </si>
-  <si>
-    <t>Петрович</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
-    <t>Валерьевич</t>
-  </si>
-  <si>
-    <t>Константиновна</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>Артёмович</t>
-  </si>
-  <si>
-    <t>личный</t>
-  </si>
-  <si>
-    <t>рабочий</t>
-  </si>
-  <si>
-    <t>дом</t>
   </si>
 </sst>
 </file>
@@ -188,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,9 +228,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +262,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,27 +296,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,36 +475,29 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>525453545</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,19 +525,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>789456</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,19 +545,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>8515695</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,19 +565,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>8878987</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1945654</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,19 +605,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1549587454</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,19 +625,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>123456789</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ex_3_phonebook/my_project.xlsx
+++ b/ex_3_phonebook/my_project.xlsx
@@ -1,138 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_9\ex_3_phonebook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726BA09-F406-4224-9955-FD400BE774A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="2640" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Телфон</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Грибной</t>
-  </si>
-  <si>
-    <t>Арсен</t>
-  </si>
-  <si>
-    <t>Петрович</t>
-  </si>
-  <si>
-    <t>личный</t>
-  </si>
-  <si>
-    <t>Арбатов</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
-    <t>рабочий</t>
-  </si>
-  <si>
-    <t>Круглов</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Валерьевич</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>Котова</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>Константиновна</t>
-  </si>
-  <si>
-    <t>Аниськин</t>
-  </si>
-  <si>
-    <t>Егор</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>Артёмов</t>
-  </si>
-  <si>
-    <t>Артём</t>
-  </si>
-  <si>
-    <t>Артёмович</t>
-  </si>
-  <si>
-    <t>Романов</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -166,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,173 +433,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Телфон</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Грибной</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Арсен</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>525453545</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>личный</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Арбатов</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>789456</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>рабочий</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Круглов</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8515695</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>дом</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Котова</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Константиновна</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>8878987</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>личный</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Аниськин</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1945654</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>рабочий</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Артёмов</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Артёмович</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1549587454</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>личный</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Романов</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>личный</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>525453545</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>789456</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>8515695</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>8878987</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1945654</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1549587454</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>123456789</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Котова</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Константиновна</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5565454</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>дом</t>
+        </is>
       </c>
     </row>
   </sheetData>
